--- a/Racecard_20250216_7.xlsx
+++ b/Racecard_20250216_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="303">
   <si>
     <t>日期</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
   </si>
   <si>
     <t>上次名次</t>
@@ -777,6 +783,21 @@
   </si>
   <si>
     <t>PPG</t>
+  </si>
+  <si>
+    <t>2025/02/09</t>
+  </si>
+  <si>
+    <t>2024/05/05</t>
+  </si>
+  <si>
+    <t>2024/12/08</t>
+  </si>
+  <si>
+    <t>2024/06/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第三班 </t>
   </si>
   <si>
     <t>布文</t>
@@ -1291,13 +1312,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CM15"/>
+  <dimension ref="A1:CO15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:93">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,25 +1592,31 @@
       <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:93">
       <c r="A2" s="2">
         <v>45704</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>1800</v>
@@ -1598,87 +1625,87 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L2">
         <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O2">
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2">
         <v>79</v>
       </c>
       <c r="S2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W2">
         <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AC2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AD2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AE2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG2" t="s">
-        <v>242</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>109</v>
+        <v>244</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:93">
       <c r="A3" s="2">
         <v>45704</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>1800</v>
@@ -1687,87 +1714,87 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L3">
         <v>132</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O3">
         <v>13</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R3">
         <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W3">
         <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AC3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AD3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AE3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG3" t="s">
-        <v>243</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>110</v>
+        <v>245</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:93">
       <c r="A4" s="2">
         <v>45704</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>1800</v>
@@ -1776,87 +1803,87 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4">
         <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R4">
         <v>74</v>
       </c>
       <c r="S4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W4">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AB4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AC4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AE4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG4" t="s">
-        <v>242</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>111</v>
+        <v>244</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:93">
       <c r="A5" s="2">
         <v>45704</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>1800</v>
@@ -1865,84 +1892,84 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L5">
         <v>130</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O5">
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R5">
         <v>74</v>
       </c>
       <c r="S5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AD5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AE5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG5" t="s">
-        <v>244</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>112</v>
+        <v>246</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:93">
       <c r="A6" s="2">
         <v>45704</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>1800</v>
@@ -1951,174 +1978,180 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L6">
         <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R6">
         <v>73</v>
       </c>
       <c r="S6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AA6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AB6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AE6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AH6">
         <v>2024415</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK6">
         <v>5</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK6">
+      <c r="AL6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM6">
         <v>6.3</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>129</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>0</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>9</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>-8</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>13.62</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>35.2</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>255</v>
       </c>
       <c r="AT6" t="s">
         <v>258</v>
       </c>
+      <c r="AU6" t="s">
+        <v>262</v>
+      </c>
       <c r="AV6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AW6">
+        <v>265</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AY6">
         <v>13.98</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
         <v>22.42</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>23.53</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>23.64</v>
       </c>
-      <c r="BA6">
+      <c r="BC6">
         <v>24.09</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>47.73</v>
       </c>
-      <c r="BD6">
+      <c r="BF6">
         <v>-0.448</v>
       </c>
-      <c r="BE6">
+      <c r="BG6">
         <v>47.282</v>
       </c>
-      <c r="BF6" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>113</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>268</v>
+      <c r="BH6" t="s">
+        <v>275</v>
       </c>
       <c r="CH6" t="s">
-        <v>286</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL6">
+        <v>115</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>275</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>293</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>275</v>
+      </c>
+      <c r="CN6">
         <v>107.21</v>
       </c>
-      <c r="CM6">
+      <c r="CO6">
         <v>107.21</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:93">
       <c r="A7" s="2">
         <v>45704</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>1800</v>
@@ -2127,249 +2160,255 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7">
         <v>129</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O7">
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R7">
         <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="W7">
         <v>6</v>
       </c>
       <c r="Y7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AC7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AE7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AH7">
         <v>2023639</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK7">
         <v>6</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK7">
+      <c r="AL7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM7">
         <v>14</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>128</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>1</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>3</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>7</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>13.88</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>36</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>256</v>
       </c>
       <c r="AT7" t="s">
         <v>259</v>
       </c>
+      <c r="AU7" t="s">
+        <v>263</v>
+      </c>
       <c r="AV7" t="s">
-        <v>263</v>
-      </c>
-      <c r="AW7">
+        <v>266</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AY7">
         <v>14.04</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>22.4</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>23.45</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>23.65</v>
       </c>
-      <c r="BA7">
+      <c r="BC7">
         <v>24.34</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>47.99</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>0.407</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>48.39700000000001</v>
       </c>
-      <c r="BF7" t="s">
-        <v>269</v>
-      </c>
-      <c r="BG7">
+      <c r="BH7" t="s">
+        <v>276</v>
+      </c>
+      <c r="BI7">
         <v>2023606</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>9</v>
       </c>
-      <c r="BI7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BJ7">
+      <c r="BK7" t="s">
+        <v>281</v>
+      </c>
+      <c r="BL7">
         <v>17</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>118</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>11</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>4</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>6</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>13.72</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>35.95</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BS7" t="s">
+        <v>283</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>285</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>287</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>289</v>
+      </c>
+      <c r="BX7">
+        <v>13.88</v>
+      </c>
+      <c r="BY7">
+        <v>22.71</v>
+      </c>
+      <c r="BZ7">
+        <v>24.98</v>
+      </c>
+      <c r="CA7">
+        <v>23.11</v>
+      </c>
+      <c r="CB7">
+        <v>23.67</v>
+      </c>
+      <c r="CD7">
+        <v>46.78</v>
+      </c>
+      <c r="CE7">
+        <v>0.501</v>
+      </c>
+      <c r="CF7">
+        <v>47.281</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>291</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>116</v>
+      </c>
+      <c r="CI7" t="s">
         <v>276</v>
       </c>
-      <c r="BR7" t="s">
-        <v>278</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>280</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>282</v>
-      </c>
-      <c r="BV7">
-        <v>13.88</v>
-      </c>
-      <c r="BW7">
-        <v>22.71</v>
-      </c>
-      <c r="BX7">
-        <v>24.98</v>
-      </c>
-      <c r="BY7">
-        <v>23.11</v>
-      </c>
-      <c r="BZ7">
-        <v>23.67</v>
-      </c>
-      <c r="CB7">
-        <v>46.78</v>
-      </c>
-      <c r="CC7">
-        <v>0.501</v>
-      </c>
-      <c r="CD7">
-        <v>47.281</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>284</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>114</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>269</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>287</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>284</v>
-      </c>
       <c r="CJ7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="CK7" t="s">
-        <v>294</v>
-      </c>
-      <c r="CL7">
+        <v>291</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>299</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>301</v>
+      </c>
+      <c r="CN7">
         <v>108.29</v>
       </c>
-      <c r="CM7">
+      <c r="CO7">
         <v>108.57</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:93">
       <c r="A8" s="2">
         <v>45704</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>1800</v>
@@ -2378,84 +2417,84 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8">
         <v>128</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R8">
         <v>72</v>
       </c>
       <c r="S8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W8">
         <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AB8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AE8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG8" t="s">
-        <v>242</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>115</v>
+        <v>244</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:93">
       <c r="A9" s="2">
         <v>45704</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9">
         <v>1800</v>
@@ -2464,174 +2503,180 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9">
         <v>124</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O9">
         <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R9">
         <v>68</v>
       </c>
       <c r="S9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W9">
         <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AA9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AD9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AE9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AH9">
         <v>2024245</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK9">
         <v>6</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>247</v>
-      </c>
-      <c r="AK9">
+      <c r="AL9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM9">
         <v>2.8</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>127</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>-3</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>5</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>1</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>13.86</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>36.31</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>253</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>257</v>
       </c>
       <c r="AT9" t="s">
         <v>260</v>
       </c>
+      <c r="AU9" t="s">
+        <v>264</v>
+      </c>
       <c r="AV9" t="s">
-        <v>264</v>
-      </c>
-      <c r="AW9">
+        <v>267</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY9">
         <v>14.42</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>23.09</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>23.91</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>23.29</v>
       </c>
-      <c r="BA9">
+      <c r="BC9">
         <v>23.54</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>46.83</v>
       </c>
-      <c r="BD9">
+      <c r="BF9">
         <v>0.011</v>
       </c>
-      <c r="BE9">
+      <c r="BG9">
         <v>46.841</v>
       </c>
-      <c r="BF9" t="s">
-        <v>270</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>116</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>270</v>
+      <c r="BH9" t="s">
+        <v>277</v>
       </c>
       <c r="CH9" t="s">
-        <v>288</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>270</v>
-      </c>
-      <c r="CL9">
+        <v>118</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>277</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>295</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>277</v>
+      </c>
+      <c r="CN9">
         <v>108.26</v>
       </c>
-      <c r="CM9">
+      <c r="CO9">
         <v>108.26</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:93">
       <c r="A10" s="2">
         <v>45704</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <v>1800</v>
@@ -2640,174 +2685,180 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10">
         <v>122</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O10">
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R10">
         <v>66</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="W10">
         <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AA10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AB10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AD10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AE10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AH10">
         <v>2023739</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK10">
         <v>6</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK10">
+      <c r="AL10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM10">
         <v>23</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>131</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>-9</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>5</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>-1</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>13.82</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>36.35</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>254</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>257</v>
       </c>
       <c r="AT10" t="s">
         <v>261</v>
       </c>
+      <c r="AU10" t="s">
+        <v>264</v>
+      </c>
       <c r="AV10" t="s">
-        <v>265</v>
-      </c>
-      <c r="AW10">
+        <v>268</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AY10">
         <v>14.18</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
         <v>22.85</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>23.8</v>
       </c>
-      <c r="AZ10">
+      <c r="BB10">
         <v>23.72</v>
       </c>
-      <c r="BA10">
+      <c r="BC10">
         <v>23.17</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>46.89</v>
       </c>
-      <c r="BD10">
+      <c r="BF10">
         <v>-0.191</v>
       </c>
-      <c r="BE10">
+      <c r="BG10">
         <v>46.699</v>
       </c>
-      <c r="BF10" t="s">
-        <v>271</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>271</v>
+      <c r="BH10" t="s">
+        <v>278</v>
       </c>
       <c r="CH10" t="s">
-        <v>289</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>271</v>
-      </c>
-      <c r="CL10">
+        <v>119</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>278</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>296</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>278</v>
+      </c>
+      <c r="CN10">
         <v>107.53</v>
       </c>
-      <c r="CM10">
+      <c r="CO10">
         <v>107.53</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:93">
       <c r="A11" s="2">
         <v>45704</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11">
         <v>1800</v>
@@ -2816,87 +2867,87 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11">
         <v>121</v>
       </c>
       <c r="M11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R11">
         <v>65</v>
       </c>
       <c r="S11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W11">
         <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AA11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AC11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AD11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AE11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG11" t="s">
-        <v>242</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>118</v>
+        <v>244</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:93">
       <c r="A12" s="2">
         <v>45704</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <v>1800</v>
@@ -2905,87 +2956,87 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L12">
         <v>121</v>
       </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12">
         <v>14</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R12">
         <v>65</v>
       </c>
       <c r="S12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W12">
         <v>5</v>
       </c>
       <c r="Y12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AB12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AC12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AE12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG12" t="s">
-        <v>242</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>119</v>
+        <v>244</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:93">
       <c r="A13" s="2">
         <v>45704</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>1800</v>
@@ -2994,174 +3045,180 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13">
         <v>119</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O13">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R13">
         <v>63</v>
       </c>
       <c r="S13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="W13">
         <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AH13">
         <v>2024415</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK13">
         <v>4</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK13">
+      <c r="AL13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM13">
         <v>26</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>118</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>1</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>12</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>0</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>13.62</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>35.2</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>255</v>
       </c>
       <c r="AT13" t="s">
         <v>258</v>
       </c>
+      <c r="AU13" t="s">
+        <v>262</v>
+      </c>
       <c r="AV13" t="s">
-        <v>266</v>
-      </c>
-      <c r="AW13">
+        <v>265</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY13">
         <v>14.14</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>22.42</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>23.61</v>
       </c>
-      <c r="AZ13">
+      <c r="BB13">
         <v>23.56</v>
       </c>
-      <c r="BA13">
+      <c r="BC13">
         <v>23.59</v>
       </c>
-      <c r="BC13">
+      <c r="BE13">
         <v>47.15</v>
       </c>
-      <c r="BD13">
+      <c r="BF13">
         <v>0.015</v>
       </c>
-      <c r="BE13">
+      <c r="BG13">
         <v>47.165</v>
       </c>
-      <c r="BF13" t="s">
-        <v>272</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>120</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>272</v>
+      <c r="BH13" t="s">
+        <v>279</v>
       </c>
       <c r="CH13" t="s">
-        <v>290</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>272</v>
-      </c>
-      <c r="CL13">
+        <v>122</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>279</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>297</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN13">
         <v>107.33</v>
       </c>
-      <c r="CM13">
+      <c r="CO13">
         <v>107.33</v>
       </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:93">
       <c r="A14" s="2">
         <v>45704</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <v>1800</v>
@@ -3170,84 +3227,84 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14">
         <v>118</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O14">
         <v>9</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R14">
         <v>62</v>
       </c>
       <c r="S14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W14">
         <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AB14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AD14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AE14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG14" t="s">
-        <v>242</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>121</v>
+        <v>244</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:93">
       <c r="A15" s="2">
         <v>45704</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>1800</v>
@@ -3256,228 +3313,234 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L15">
         <v>118</v>
       </c>
       <c r="M15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O15">
         <v>7</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R15">
         <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W15">
         <v>5</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AC15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AE15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AH15">
         <v>2024245</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK15">
         <v>10</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>250</v>
-      </c>
-      <c r="AK15">
+      <c r="AL15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM15">
         <v>32</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>127</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>-9</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>8</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>-1</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>13.86</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>36.31</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>253</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>257</v>
       </c>
       <c r="AT15" t="s">
         <v>260</v>
       </c>
+      <c r="AU15" t="s">
+        <v>264</v>
+      </c>
       <c r="AV15" t="s">
         <v>267</v>
       </c>
-      <c r="AW15">
+      <c r="AX15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY15">
         <v>14.78</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
         <v>22.73</v>
       </c>
-      <c r="AY15">
+      <c r="BA15">
         <v>23.87</v>
       </c>
-      <c r="AZ15">
+      <c r="BB15">
         <v>23.29</v>
       </c>
-      <c r="BA15">
+      <c r="BC15">
         <v>23.75</v>
       </c>
-      <c r="BC15">
+      <c r="BE15">
         <v>47.04</v>
       </c>
-      <c r="BD15">
+      <c r="BF15">
         <v>-0.191</v>
       </c>
-      <c r="BE15">
+      <c r="BG15">
         <v>46.849</v>
       </c>
-      <c r="BF15" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG15">
+      <c r="BH15" t="s">
+        <v>280</v>
+      </c>
+      <c r="BI15">
         <v>2023435</v>
       </c>
-      <c r="BH15">
+      <c r="BJ15">
         <v>6</v>
       </c>
-      <c r="BI15" t="s">
-        <v>275</v>
-      </c>
-      <c r="BJ15">
+      <c r="BK15" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL15">
         <v>2.8</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>126</v>
       </c>
-      <c r="BL15">
+      <c r="BN15">
         <v>-8</v>
       </c>
-      <c r="BM15">
+      <c r="BO15">
         <v>10</v>
       </c>
-      <c r="BN15">
+      <c r="BP15">
         <v>-3</v>
       </c>
-      <c r="BO15">
+      <c r="BQ15">
         <v>14.18</v>
       </c>
-      <c r="BP15">
+      <c r="BR15">
         <v>36.81</v>
       </c>
-      <c r="BQ15" t="s">
-        <v>277</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>279</v>
-      </c>
       <c r="BS15" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>286</v>
       </c>
       <c r="BU15" t="s">
-        <v>283</v>
-      </c>
-      <c r="BV15">
+        <v>288</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>290</v>
+      </c>
+      <c r="BX15">
         <v>14.7</v>
       </c>
-      <c r="BW15">
+      <c r="BY15">
         <v>22.67</v>
       </c>
-      <c r="BX15">
+      <c r="BZ15">
         <v>24.18</v>
       </c>
-      <c r="BY15">
+      <c r="CA15">
         <v>23.63</v>
       </c>
-      <c r="BZ15">
+      <c r="CB15">
         <v>23.64</v>
       </c>
-      <c r="CB15">
+      <c r="CD15">
         <v>47.27</v>
       </c>
-      <c r="CC15">
+      <c r="CE15">
         <v>-0.288</v>
       </c>
-      <c r="CD15">
+      <c r="CF15">
         <v>46.98200000000001</v>
       </c>
-      <c r="CE15" t="s">
-        <v>285</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>122</v>
-      </c>
       <c r="CG15" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="CH15" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
       <c r="CI15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="CJ15" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="CK15" t="s">
-        <v>295</v>
-      </c>
-      <c r="CL15">
+        <v>292</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>300</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CN15">
         <v>108.23</v>
       </c>
-      <c r="CM15">
+      <c r="CO15">
         <v>108.38</v>
       </c>
     </row>
